--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="662">
   <si>
     <t>Property</t>
   </si>
@@ -1032,9 +1032,6 @@
   </si>
   <si>
     <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>value:code}
@@ -6795,7 +6792,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>327</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -6859,7 +6856,7 @@
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
@@ -6904,13 +6901,13 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>326</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>80</v>
@@ -7028,10 +7025,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7146,10 +7143,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7266,10 +7263,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7311,7 +7308,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>80</v>
@@ -7388,10 +7385,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7508,10 +7505,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7551,7 +7548,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>80</v>
@@ -7628,10 +7625,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7748,10 +7745,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7870,20 +7867,20 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>326</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>91</v>
@@ -7994,10 +7991,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8112,10 +8109,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8232,10 +8229,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8277,7 +8274,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>80</v>
@@ -8354,10 +8351,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8474,10 +8471,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8517,7 +8514,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>80</v>
@@ -8594,10 +8591,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8714,10 +8711,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8836,10 +8833,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8958,10 +8955,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8984,19 +8981,19 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -9045,7 +9042,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -9060,19 +9057,19 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -9080,10 +9077,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9106,16 +9103,16 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9165,7 +9162,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9189,10 +9186,10 @@
         <v>320</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -9200,14 +9197,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9226,19 +9223,19 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9287,7 +9284,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9302,19 +9299,19 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -9322,14 +9319,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9348,19 +9345,19 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9409,7 +9406,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9418,25 +9415,25 @@
         <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AJ58" t="s" s="2">
+      <c r="AK58" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AL58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9444,10 +9441,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9470,16 +9467,16 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9529,7 +9526,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9550,13 +9547,13 @@
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>80</v>
@@ -9564,10 +9561,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9590,17 +9587,17 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9637,7 +9634,7 @@
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
@@ -9647,7 +9644,7 @@
         <v>140</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9662,19 +9659,19 @@
         <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>80</v>
@@ -9682,13 +9679,13 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>80</v>
@@ -9710,17 +9707,17 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9769,7 +9766,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9784,19 +9781,19 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>80</v>
@@ -9804,13 +9801,13 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C62" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>80</v>
@@ -9832,17 +9829,17 @@
         <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9891,7 +9888,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9906,19 +9903,19 @@
         <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -9926,10 +9923,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9952,19 +9949,19 @@
         <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -10001,17 +9998,17 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -10020,7 +10017,7 @@
         <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>103</v>
@@ -10029,30 +10026,30 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP63" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>434</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="C64" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>80</v>
@@ -10074,19 +10071,19 @@
         <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="N64" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="O64" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -10135,7 +10132,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10144,7 +10141,7 @@
         <v>91</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>103</v>
@@ -10153,27 +10150,27 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>434</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10288,10 +10285,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10408,10 +10405,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10434,19 +10431,19 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10495,7 +10492,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10516,10 +10513,10 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10530,10 +10527,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10559,20 +10556,20 @@
         <v>111</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q68" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q68" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>80</v>
@@ -10596,28 +10593,28 @@
         <v>208</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Z68" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="Z68" t="s" s="2">
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF68" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10638,10 +10635,10 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10652,10 +10649,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10681,14 +10678,14 @@
         <v>230</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10737,7 +10734,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10758,10 +10755,10 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10772,10 +10769,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10801,63 +10798,63 @@
         <v>105</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10866,7 +10863,7 @@
         <v>91</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>103</v>
@@ -10878,10 +10875,10 @@
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10892,10 +10889,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10921,65 +10918,65 @@
         <v>111</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -11000,10 +10997,10 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -11014,10 +11011,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11043,16 +11040,16 @@
         <v>216</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -11080,11 +11077,11 @@
         <v>315</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>496</v>
-      </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
       </c>
@@ -11101,7 +11098,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11110,7 +11107,7 @@
         <v>91</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>103</v>
@@ -11125,7 +11122,7 @@
         <v>134</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -11136,14 +11133,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -11165,16 +11162,16 @@
         <v>216</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -11202,11 +11199,11 @@
         <v>315</v>
       </c>
       <c r="Y73" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Z73" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Z73" t="s" s="2">
-        <v>506</v>
-      </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
       </c>
@@ -11223,7 +11220,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11241,27 +11238,27 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AN73" t="s" s="2">
+      <c r="AO73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP73" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>510</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11284,19 +11281,19 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11345,7 +11342,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11366,10 +11363,10 @@
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11380,10 +11377,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11409,13 +11406,13 @@
         <v>216</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11445,7 +11442,7 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -11463,7 +11460,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11481,27 +11478,27 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AO75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP75" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>527</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11616,10 +11613,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11736,10 +11733,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11803,7 +11800,7 @@
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>80</v>
@@ -11856,10 +11853,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11978,10 +11975,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12007,16 +12004,16 @@
         <v>216</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -12045,7 +12042,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -12063,7 +12060,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12084,10 +12081,10 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12098,10 +12095,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12216,10 +12213,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12336,10 +12333,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12403,7 +12400,7 @@
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -12456,10 +12453,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12578,10 +12575,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12604,16 +12601,16 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12663,7 +12660,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12681,27 +12678,27 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AN85" t="s" s="2">
+      <c r="AO85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP85" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP85" t="s" s="2">
-        <v>552</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12724,16 +12721,16 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12783,7 +12780,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12801,27 +12798,27 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="AM86" t="s" s="2">
+      <c r="AN86" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="AN86" t="s" s="2">
+      <c r="AO86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP86" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP86" t="s" s="2">
-        <v>561</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12844,19 +12841,19 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12905,7 +12902,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12917,19 +12914,19 @@
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="AK87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM87" t="s" s="2">
+      <c r="AN87" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12940,10 +12937,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13058,10 +13055,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13178,14 +13175,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13207,10 +13204,10 @@
         <v>136</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>173</v>
@@ -13265,7 +13262,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13300,10 +13297,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13326,13 +13323,13 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13383,7 +13380,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13392,7 +13389,7 @@
         <v>91</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>103</v>
@@ -13404,10 +13401,10 @@
         <v>80</v>
       </c>
       <c r="AM91" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
@@ -13418,10 +13415,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13444,13 +13441,13 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13501,7 +13498,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13510,7 +13507,7 @@
         <v>91</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>103</v>
@@ -13522,10 +13519,10 @@
         <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13536,10 +13533,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13565,16 +13562,16 @@
         <v>216</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13602,11 +13599,11 @@
         <v>115</v>
       </c>
       <c r="Y93" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="Z93" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="Z93" t="s" s="2">
-        <v>595</v>
-      </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
       </c>
@@ -13623,7 +13620,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13641,13 +13638,13 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="AM93" t="s" s="2">
-        <v>597</v>
-      </c>
       <c r="AN93" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13658,10 +13655,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13687,16 +13684,16 @@
         <v>216</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13721,14 +13718,14 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="Y94" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="Y94" t="s" s="2">
+      <c r="Z94" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="Z94" t="s" s="2">
-        <v>605</v>
-      </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
       </c>
@@ -13745,7 +13742,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13763,13 +13760,13 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="AM94" t="s" s="2">
-        <v>597</v>
-      </c>
       <c r="AN94" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13780,10 +13777,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13806,17 +13803,17 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13865,7 +13862,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13889,7 +13886,7 @@
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13900,10 +13897,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13929,10 +13926,10 @@
         <v>230</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13983,7 +13980,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -14004,10 +14001,10 @@
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -14018,10 +14015,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14044,16 +14041,16 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14103,7 +14100,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -14124,10 +14121,10 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>80</v>
@@ -14138,10 +14135,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14164,16 +14161,16 @@
         <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14223,7 +14220,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -14244,10 +14241,10 @@
         <v>80</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>80</v>
@@ -14258,10 +14255,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14284,19 +14281,19 @@
         <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="M99" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -14345,7 +14342,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14357,19 +14354,19 @@
         <v>80</v>
       </c>
       <c r="AJ99" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="AK99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM99" t="s" s="2">
+      <c r="AN99" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -14380,10 +14377,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14498,10 +14495,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14618,14 +14615,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14647,10 +14644,10 @@
         <v>136</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>173</v>
@@ -14705,7 +14702,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14740,10 +14737,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14769,16 +14766,16 @@
         <v>216</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>80</v>
@@ -14827,7 +14824,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>91</v>
@@ -14845,7 +14842,7 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>320</v>
@@ -14862,10 +14859,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14888,19 +14885,19 @@
         <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="N104" t="s" s="2">
-        <v>649</v>
-      </c>
       <c r="O104" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>80</v>
@@ -14928,11 +14925,11 @@
         <v>208</v>
       </c>
       <c r="Y104" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="Z104" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="Z104" t="s" s="2">
-        <v>651</v>
-      </c>
       <c r="AA104" t="s" s="2">
         <v>80</v>
       </c>
@@ -14949,7 +14946,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14958,7 +14955,7 @@
         <v>91</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>103</v>
@@ -14967,27 +14964,27 @@
         <v>80</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AM104" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AN104" t="s" s="2">
+      <c r="AO104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP104" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP104" t="s" s="2">
-        <v>434</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15013,16 +15010,16 @@
         <v>216</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="N105" t="s" s="2">
-        <v>657</v>
-      </c>
       <c r="O105" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>80</v>
@@ -15050,11 +15047,11 @@
         <v>315</v>
       </c>
       <c r="Y105" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="Z105" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="Z105" t="s" s="2">
-        <v>496</v>
-      </c>
       <c r="AA105" t="s" s="2">
         <v>80</v>
       </c>
@@ -15071,7 +15068,7 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -15080,7 +15077,7 @@
         <v>91</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>103</v>
@@ -15095,7 +15092,7 @@
         <v>134</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>80</v>
@@ -15106,14 +15103,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15135,16 +15132,16 @@
         <v>216</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>80</v>
@@ -15172,11 +15169,11 @@
         <v>315</v>
       </c>
       <c r="Y106" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Z106" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Z106" t="s" s="2">
-        <v>506</v>
-      </c>
       <c r="AA106" t="s" s="2">
         <v>80</v>
       </c>
@@ -15193,7 +15190,7 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -15211,27 +15208,27 @@
         <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AM106" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AM106" t="s" s="2">
+      <c r="AN106" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AN106" t="s" s="2">
+      <c r="AO106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP106" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP106" t="s" s="2">
-        <v>510</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15257,16 +15254,16 @@
         <v>81</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="M107" t="s" s="2">
-        <v>662</v>
-      </c>
       <c r="N107" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="O107" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>80</v>
@@ -15315,7 +15312,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -15336,10 +15333,10 @@
         <v>80</v>
       </c>
       <c r="AM107" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>80</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="661">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.2</t>
+    <t>0.7.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -489,10 +489,11 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Additional issues or factors that may impact for the measurement</t>
+  </si>
+  <si>
+    <t>Narrative description about any incidental factors that may affect interpretation of the physical findings.
+Comment: For example, presence of a pacemaker, level of anxiety; pain or fever etc.</t>
   </si>
   <si>
     <t>Observation.extension:clinicalDescription</t>
@@ -644,7 +645,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  Notes below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -1172,7 +1173,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension focusCode.</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -1230,7 +1231,7 @@
     <t>Often just a dateTime for Vital Signs.</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the Timing datatype which allow the measurement to be tied to regular life events.</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -1384,9 +1385,6 @@
     <t>The rate of the pulse , measured in beats per minute.</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the Notes section below.</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueQuantity.id</t>
   </si>
   <si>
@@ -1640,7 +1638,7 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension bodySite.</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
   </si>
   <si>
     <t>http://hl7.no/fhir/ValueSet/NoDomainVitalSignsObservationPulseBodySite</t>
@@ -1950,7 +1948,7 @@
     <t>Used when reporting vital signs panel components.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1972,7 +1970,7 @@
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -10080,7 +10078,7 @@
         <v>437</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>426</v>
@@ -10167,10 +10165,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10285,10 +10283,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10405,10 +10403,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10431,19 +10429,19 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10492,7 +10490,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10513,10 +10511,10 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10527,10 +10525,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10556,20 +10554,20 @@
         <v>111</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q68" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q68" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>80</v>
@@ -10593,28 +10591,28 @@
         <v>208</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="Z68" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="Z68" t="s" s="2">
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF68" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10635,10 +10633,10 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10649,10 +10647,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10678,14 +10676,14 @@
         <v>230</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10734,7 +10732,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10755,10 +10753,10 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10769,10 +10767,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10798,63 +10796,63 @@
         <v>105</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10863,7 +10861,7 @@
         <v>91</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>103</v>
@@ -10875,10 +10873,10 @@
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10889,10 +10887,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10918,65 +10916,65 @@
         <v>111</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10997,10 +10995,10 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -11011,10 +11009,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11040,16 +11038,16 @@
         <v>216</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -11077,11 +11075,11 @@
         <v>315</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>495</v>
-      </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
       </c>
@@ -11098,7 +11096,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11107,7 +11105,7 @@
         <v>91</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>103</v>
@@ -11122,7 +11120,7 @@
         <v>134</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -11133,14 +11131,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -11162,16 +11160,16 @@
         <v>216</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -11199,11 +11197,11 @@
         <v>315</v>
       </c>
       <c r="Y73" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="Z73" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="Z73" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
       </c>
@@ -11220,7 +11218,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11238,27 +11236,27 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AN73" t="s" s="2">
+      <c r="AO73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP73" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>509</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11281,19 +11279,19 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11342,7 +11340,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11363,10 +11361,10 @@
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11377,10 +11375,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11406,13 +11404,13 @@
         <v>216</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11442,7 +11440,7 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -11460,7 +11458,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11478,27 +11476,27 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AO75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP75" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>526</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11613,10 +11611,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11733,10 +11731,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11800,7 +11798,7 @@
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>80</v>
@@ -11853,10 +11851,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11975,10 +11973,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12004,16 +12002,16 @@
         <v>216</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -12042,7 +12040,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -12060,7 +12058,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12081,10 +12079,10 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12095,10 +12093,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12213,10 +12211,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12333,10 +12331,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12400,7 +12398,7 @@
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -12453,10 +12451,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12575,10 +12573,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12601,16 +12599,16 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12660,7 +12658,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12678,27 +12676,27 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AN85" t="s" s="2">
+      <c r="AO85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP85" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP85" t="s" s="2">
-        <v>551</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12721,16 +12719,16 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12780,7 +12778,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12798,27 +12796,27 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="AM86" t="s" s="2">
+      <c r="AN86" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="AN86" t="s" s="2">
+      <c r="AO86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP86" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP86" t="s" s="2">
-        <v>560</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12841,19 +12839,19 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12902,7 +12900,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12914,19 +12912,19 @@
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="AK87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM87" t="s" s="2">
+      <c r="AN87" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12937,10 +12935,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13055,10 +13053,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13175,14 +13173,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13204,10 +13202,10 @@
         <v>136</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>173</v>
@@ -13262,7 +13260,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13297,10 +13295,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13323,13 +13321,13 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13380,7 +13378,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13389,7 +13387,7 @@
         <v>91</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>103</v>
@@ -13401,10 +13399,10 @@
         <v>80</v>
       </c>
       <c r="AM91" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
@@ -13415,10 +13413,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13441,13 +13439,13 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13498,7 +13496,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13507,7 +13505,7 @@
         <v>91</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>103</v>
@@ -13519,10 +13517,10 @@
         <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13533,10 +13531,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13562,16 +13560,16 @@
         <v>216</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13599,11 +13597,11 @@
         <v>115</v>
       </c>
       <c r="Y93" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="Z93" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="Z93" t="s" s="2">
-        <v>594</v>
-      </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
       </c>
@@ -13620,7 +13618,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13638,13 +13636,13 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="AM93" t="s" s="2">
-        <v>596</v>
-      </c>
       <c r="AN93" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13655,10 +13653,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13684,16 +13682,16 @@
         <v>216</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13718,14 +13716,14 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="Y94" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="Y94" t="s" s="2">
+      <c r="Z94" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="Z94" t="s" s="2">
-        <v>604</v>
-      </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
       </c>
@@ -13742,7 +13740,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13760,13 +13758,13 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="AM94" t="s" s="2">
-        <v>596</v>
-      </c>
       <c r="AN94" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13777,10 +13775,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13803,17 +13801,17 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13862,7 +13860,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13886,7 +13884,7 @@
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13897,10 +13895,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13926,10 +13924,10 @@
         <v>230</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13980,7 +13978,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -14001,10 +13999,10 @@
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -14015,10 +14013,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14041,16 +14039,16 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14100,7 +14098,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -14121,10 +14119,10 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>80</v>
@@ -14135,10 +14133,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14161,16 +14159,16 @@
         <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14220,7 +14218,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -14241,10 +14239,10 @@
         <v>80</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>80</v>
@@ -14255,10 +14253,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14281,19 +14279,19 @@
         <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="M99" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -14342,7 +14340,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14354,19 +14352,19 @@
         <v>80</v>
       </c>
       <c r="AJ99" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="AK99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM99" t="s" s="2">
+      <c r="AN99" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -14377,10 +14375,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14495,10 +14493,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14615,14 +14613,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14644,10 +14642,10 @@
         <v>136</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>173</v>
@@ -14702,7 +14700,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14737,10 +14735,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14766,16 +14764,16 @@
         <v>216</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>80</v>
@@ -14824,7 +14822,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>91</v>
@@ -14842,7 +14840,7 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>320</v>
@@ -14859,10 +14857,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14885,16 +14883,16 @@
         <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>426</v>
@@ -14925,11 +14923,11 @@
         <v>208</v>
       </c>
       <c r="Y104" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="Z104" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="Z104" t="s" s="2">
-        <v>650</v>
-      </c>
       <c r="AA104" t="s" s="2">
         <v>80</v>
       </c>
@@ -14946,7 +14944,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14955,7 +14953,7 @@
         <v>91</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>103</v>
@@ -14964,7 +14962,7 @@
         <v>80</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>431</v>
@@ -14981,10 +14979,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15010,16 +15008,16 @@
         <v>216</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="N105" t="s" s="2">
-        <v>656</v>
-      </c>
       <c r="O105" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>80</v>
@@ -15047,11 +15045,11 @@
         <v>315</v>
       </c>
       <c r="Y105" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Z105" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="Z105" t="s" s="2">
-        <v>495</v>
-      </c>
       <c r="AA105" t="s" s="2">
         <v>80</v>
       </c>
@@ -15068,7 +15066,7 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -15077,7 +15075,7 @@
         <v>91</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>103</v>
@@ -15092,7 +15090,7 @@
         <v>134</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>80</v>
@@ -15103,14 +15101,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15132,16 +15130,16 @@
         <v>216</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>80</v>
@@ -15169,11 +15167,11 @@
         <v>315</v>
       </c>
       <c r="Y106" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="Z106" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="Z106" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="AA106" t="s" s="2">
         <v>80</v>
       </c>
@@ -15190,7 +15188,7 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -15208,27 +15206,27 @@
         <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AM106" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AM106" t="s" s="2">
+      <c r="AN106" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AN106" t="s" s="2">
+      <c r="AO106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP106" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP106" t="s" s="2">
-        <v>509</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15254,16 +15252,16 @@
         <v>81</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>660</v>
       </c>
-      <c r="M107" t="s" s="2">
-        <v>661</v>
-      </c>
       <c r="N107" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="O107" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>80</v>
@@ -15312,7 +15310,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -15333,10 +15331,10 @@
         <v>80</v>
       </c>
       <c r="AM107" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>80</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.4</t>
+    <t>0.7.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -14920,7 +14920,7 @@
         <v>80</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>208</v>
+        <v>315</v>
       </c>
       <c r="Y104" t="s" s="2">
         <v>648</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.5</t>
+    <t>0.7.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.6</t>
+    <t>0.7.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -96,7 +96,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>Some content in this profile builds on the blood pressure archetype: Blodtrykk, Publisert arketype [Internet]. openEHR Norge, Nasjonal IKT Clinical Knowledge Manager [sitert: 2024-12-02]. Hentet fra: https://arketyper.no/ckm/archetypes/1078.36.2165</t>
+    <t>Some content in this profile builds on the heart rate archetype: Puls/Hjertefrekvens, Publisert arketype [Internet]. openEHR Norge, Nasjonal IKT Clinical Knowledge Manager [sitert: 2024-12-04]. Hentet fra: https://arketyper.no/ckm/archetypes/1078.36.2293</t>
   </si>
   <si>
     <t>FHIR Version</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.8</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-05-01</t>
+    <t>2025-01-28</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Base profile for Norwegian Vital Signs Observation Pulse information.</t>
+    <t>Base profile for Norwegian Vital Signs Observation Pulse information. To be used for recording the number of times your arteries create a noticeable �pulse� due to increase in blood pressure</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1695,7 +1695,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/NoDomainVitalSignsPulseMeasurmentMethod</t>
+    <t>http://hl7.no/fhir/ValueSet/NoDomainVitalSignsObservationPulseMeasurementMethod</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -2451,7 +2451,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.32421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="79.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -84,13 +84,13 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Base profile for Norwegian Vital Signs Observation Pulse information. To be used for recording the number of times your arteries create a noticeable �pulse� due to increase in blood pressure</t>
+    <t>Domain profile for Norwegian Vital Signs Observation Pulse information. To be used for recording the number of times your arteries create a noticeable pulse due to increase in blood pressure. This profile describes how to use a SNOMED code to indicate that the measurement is actually a pulse measurement at systemic artery, and not a general heart rate measurement that can be measured both as pulse and the actual heart beat.</t>
   </si>
   <si>
     <t>Purpose</t>
   </si>
   <si>
-    <t>Basisprofile for Norwegian  VitalSigns Observation pulse information. Defined by The Norwegian Directorate of eHealth and HL7 Norway. The profile adds Norwegian specific property information and further explanation of the use for the data-elements in a Norwegian VitalSigns Observation Pulse.</t>
+    <t>Domain profile for Norwegian  VitalSigns Observation pulse information. Defined by The Norwegian Directorate of health and HL7 Norway. The profile adds Norwegian specific property information and further explanation of the use for the data-elements in a Norwegian VitalSigns Observation Pulse.</t>
   </si>
   <si>
     <t>Copyright</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationPulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -2426,17 +2426,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.75390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.94140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.0234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="179.23828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="153.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2445,28 +2445,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="79.6796875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
